--- a/data/BaseRetail.xlsx
+++ b/data/BaseRetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscao\Google Drive\Jupyter\GIT\Projet5\obj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscao\Google Drive\Jupyter\GIT\Projet5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -405,11 +405,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
@@ -465,7 +466,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G2" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -491,7 +492,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G3" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -517,7 +518,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G4" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -543,7 +544,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G5" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -569,7 +570,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G6" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -595,7 +596,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G7" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -621,7 +622,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G8" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -647,7 +648,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G9" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -673,7 +674,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G10" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -699,7 +700,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G11" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -725,7 +726,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G12" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -751,7 +752,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G13" s="8">
-        <v>99999</v>
+        <v>-99999</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
